--- a/files_未调整格式/WO3.xlsx
+++ b/files_未调整格式/WO3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\pythonProject\files_未调整格式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A106EB0-A446-48EA-A23D-8A7478BCD833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF68F2A-36AF-4C31-8B02-5764B16038A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="苯" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="57">
   <si>
     <t xml:space="preserve">     20220918
 条件</t>
@@ -200,6 +200,14 @@
     <t xml:space="preserve">    20221022
 条件</t>
   </si>
+  <si>
+    <t xml:space="preserve">        2022092条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           器件编号浓度比例（点位序号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +220,7 @@
     <numFmt numFmtId="179" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +238,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -364,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +515,12 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11459,8 +11481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11470,12 +11492,12 @@
     <col min="3" max="14" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
